--- a/input/codebooks/textual.xlsx
+++ b/input/codebooks/textual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
   <si>
     <t>COLUMN</t>
   </si>
@@ -22,7 +22,13 @@
     <t>description</t>
   </si>
   <si>
-    <t>values</t>
+    <t>data_type</t>
+  </si>
+  <si>
+    <t>name_type</t>
+  </si>
+  <si>
+    <t>val_range</t>
   </si>
   <si>
     <t>Q366a_2</t>
@@ -31,6 +37,9 @@
     <t>CKIN_2_SPE_2</t>
   </si>
   <si>
+    <t>Q1003_2</t>
+  </si>
+  <si>
     <t>SRQ21_2</t>
   </si>
   <si>
@@ -61,6 +70,9 @@
     <t>specify other income type</t>
   </si>
   <si>
+    <t>Do they resort to any tricks? What do they do? (Record examples given by elderly)</t>
+  </si>
+  <si>
     <t>Who shares the home with the elderly?</t>
   </si>
   <si>
@@ -82,34 +94,43 @@
     <t>Is there anyone else in the family who is more involved in helping than you?</t>
   </si>
   <si>
-    <t xml:space="preserve"> منذ سنة تقريبا,0,1,10,11,120,24,3اشهر,4,40,شهر24,من سنتين,من عشره أعوام ولم أستفيد ابدا,منذ سنة تقريبا,نعم,نعم  منذ 12 سنه   تعرض للجلطه</t>
-  </si>
-  <si>
-    <t>employee,from work,hand crafts,his daughter,shop,taxi driver,work,رسم من المعاينات,عمل من خلال السفر من فتره طويله,مدخول من الدكان,مساعده ماديه من الابناء,من الزراعه</t>
-  </si>
-  <si>
-    <t>(me)her daughter,0,2,6,alone,brother,brother-sister in law-children,brother-sister in law-nephew,brothers and sisters,children,children and wife,daughter,daughter and helper,daughter and her husband,daughter and son,daughter and two grandchildren,daughter, son-in-law, grandson,daughter-daughter in law-children,daughter-grandson,daughter-maid,daughter/grand-daughter,daughters,family,father,father,brother,friend,hanine and asaad(son),her brother,her children,her daughter,her daughter and grandchildren,her daughter and her grand daughter,her daughter and her granddaughter,her daughter and son,her grandson,her husband,her husband and I,her husband and children,her husband and her children,her husband and her daughter,her husband and her son,her husband and the maid,her husband,son,grandson and the maid,her kids,her sister,her sister and her mother,her son,her son and her daughter,her son and his children,her son and his family,her son, her daughter and her granddaughter,her son, her daughter in law,her son, her daughter in law, her granddaughter,her son,daughter,grandson and me,his children and I,his children and me,his family,his son,grandson and me,his wife,his wife and children,his wife and his children,his wife and his daughter,his wife and one of his children,his wife, his son,his wife, son, grandson, maid,his wife,the maid and his grandchildren,husband,husband and children,husband and daughter,husband and kids,husband and son,husband daughter,husband sister daughter,husband son daughter,husband-children,husband-daughter,husband-daughters,husband-grandson,husband-maid,husband-son,husband-son-daughter in law-grand children,husband/children,husband/maid,husband/son,maid,maid/daughters,me,me and his children,me and my brother,me and my children,me and my son,me,kids,mother,mother,father,mother-brother-maid,my brother,my brother and I,my children and I,my husband,my husband and my children,my husband, children and I,my husband, my children and I,my mother,my mother and I,my seblings,my seblings and I,my siblings and I,my sister and I,my sister and her daughter,my wife,my wife and I,nephew,no one,nobody,none,nothing,our son and I(her husband),relative,she,sister,son,son and daughter,son and his family,son and his wife,son and his wife and 3 children,son and maid,son daughter in low daughter,son's family,son,sibling,grandchildren,son-daughter,son-daughter in law,son-daughter in law-grandson,son-daughter-maid,the children,the children and the husband,the children and the wife,the daughter,the daughter and the son,the daughter and the wife,the daughter, the children,the husband,the husband and the daughter,the husband and the wife only,the maid,the sister,the son,the son and daughter,the son and his children,the son and the daughter in law,the son, the mother,the son,the wife,the wife,the wife and her sister,the wife and the children,the wife and the daughter,the wife and the maid,the wife and the son,wife,wife and brother,wife and children,wife and daughter,wife and kids,wife and made,wife and maid,wife and son,wife kids,wife made,wife sister daughter,wife,kids,wife,son,wife-children,wife-children-sister,wife-daughter,wife-daughter-sister,wife-daughters,wife-maid,wife-sister,wife-son,wife-son-daughter,wife-son-daughter in law-grandson,wife/daughter,wife/son,wife/son/daughter-in-law,wife/sons,younger brother,إلا بأنه والابن  وابن الابن,إلا بن  والابنه,إلا بنه00,إلا هوه  ,االابن,االابن والخادمه,ابنتان المشترك,ابنتاها,ابنته,ابنته و حفيده و زوجته,ابنته و زوجته,ابنتها,ابنتها وابنها,ابنتيها وزوجها,ابنها و زوجها,اختاها,ال ابنه   والابن,ال ابنه  الأولى   والثانيه0,ال ابنه والابن,ال ابنه والاحفاد,ال ابنه والزوجه,ال لن ,الأبناء ,الااحد,الابتاء,الابن,الابن ,الابن   والبنت ,الابن  والابنه,الابن  والاحفاد,الابن الكنة و الاحغاد,الابن الكنة و الاحفاد,الابن الكنه الاحفاد,الابن و الابنة و الزوج,الابن و الكنة,الابن و زوجته و أولاده,الابن و زوجته و اولاده,الابن والا بنت ,الابن والاحفاد,الابن وزوجته والاحفاد,الابناء,الابنة,الابنه,الابنهكلا,الاخ,الاخ و زوجته و أولاده,الاخت,الاخت وزوج الاخت و العاملة المنزلية,الاولاد,الاولاد  ولالحفاد,البن و الزوجه والكنه,البنات,البنات ,البنه,البنيان   ,الخ الزوجه وأبناء الاخ,الخادمه,الزوج,الزوج ,الزوج  ولابنه,الزوج الابنة,الزوج الابنة واخت الزوج,الزوج و الابن,الزوج و الابناء,الزوج و العاملة المنزلية,الزوج والابن,الزوج والابن   وبنت الابن,الزوج والاخت والعاملة المنزلية,الزوج والستين ,الزوج واولاده,الزوجة,الزوجة و الابن,الزوجة و الابناء,الزوجة و الابنة,الزوجة و الاولاد,الزوجة و البناء,الزوجة و العاملة,الزوجة وبناته الثلاث,الزوجه,الزوجه ,الزوجه ةالاولاد,الزوجه والا بنه,الزوجه والابنه,الزوجه والاولاد,العاملة المنزلية,المخبر,الوالدة,انا,انا وابنه,انا واختي,انا واختي وامي,انا والاولاد,اولاد,اﻷوﻻد,اﻻبن واﻻبنة,اﻻبنة,اﻻزوج,اﻻم وثلاث اخوات,بنت الأخ  وزوجه الاخ,زوج والعاملة المنزلية,زوجته,زوجته وابناءه,زوجته وابنه,زوجها و ابنتها و حفيدتها,لا أحد,لا احد,لااحد,يعيش المسن في منزل ابنته وابنتيها</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> الاستحمام و ارتداء الملابس تحضير الطعام و ترتيب المنزل,0,97,agriculture,bath,bathing-dressing,bathing-food,buy her meds if sick and prepare food,buying stuff,buying things,buying things and medicine,cleaning,cleaning the house,cleaning,shopping,cleaning-watching the elderly,cleaning/cooking,cook food,cooking,cooking and house chores,cooking and laundry,cooking, giving meds, taking care,cooking-cleaning,cooking/medications,don't need help,escorting,everything,fix the house,fix the house/cooking,fix the house/timing of medication lunch dinner,fixing the house,fixing the house/preparing her stuff,food,food,buying medicine,cleaning the house,food,laundry,giving her medication,giving her medicine,giving meds,help her if she's sick,help in the house,her husband and children,her husband,son and the maid,his wife,his wife prepares food and takes care of him,house chores,house chores and preparing food,housecleaning,housekeeping,housekeeping and preparing food,if she wants something i help her,if she's sick we give her meds,most of the things,no,no need,nobody,none,nothing,prepare food,prepare food and help the maid,prepare food, escorting,prepare his stuff,preparing food,preparing food and buying stuff,preparing food and stuff,preparing food, cleaning the house,preparing food, housekeeping,preparing her stuff/help her in standing,preparing his stuff,preparing stuff,showering,showering/cooking,sit with her,sometimes,sometimes bath,stuff for the house,supervision on behaviour,support him,take care of her if sick,the husband,we give her the walker to walk,we take care of each other,when he walks he gets tired,أعمال البيت جنعيها,أعمال المنزل   كلها,أعمال المنزليه,أغلب الأشياء ,أقسم من العمال المنزليه,أكل شي,ا0,االاعمال  المنزليه   بكاملها,احمل اﻻشياء الثقيله,استخدام المرحاض الحمام تحضير الطعام الحركة,الأعمال اامنزليه,الأعمال الشاقه,الأعمال القاسية جدا,الأعمال القاسيه,الأعمال القاسيه جدا,الأعمال المزليه,الأعمال المنزليه,الأعمال المنزليه والاهتمام بالمشترك,الأعمال النزليه,الاعمال المنزلية,الاعمال المنزلية والاستحمام,الاعمال المنزلية والاستخمام,الاعمال المنزلية والاهتمام به,الاعمال المنزلية وتحضير الطعام,الاهتمام به ومساعدته على الاهتمام بنظافته واعطائه اﻻدوية الﻻزمة,التيوق,السوق  الأعمال القاسيه في المنزل,العمال المنزليه,العمل الشاق ا,العمل في المنزل,القليل من الأعمال المنزليه,اللباس ومساعدته في الأكل    والمشي   وأعطاه  الدواء,المساعدة في اﻻعمال المنزلية,المساعده الجسديه,المساعده عندما يكون مريضا من ناحيه اللبس والأكل ,بعض الاعمال المنزلية,بعض المساعدة في الاعمال المنزلية,تحتاج إلى المساعده في الأعمال النزليه,تحضير الطعام,تحضير الطعام  واعطاء الدواء و اﻻعمال المنزلية,تحضير الطعام و ترتيب المنزل,تحضير الطعام والتسوق,ترتيب البيت,ترتيب المنزل,ترتيب المنزل/ التحرك ,تصليح,تصليح الأعطال ,تصليح الاعطال,تناول ادويتها,تناول الدواء,تنظيف، تحضير الطعام,جلب الاغراض,حاليا كل شي,شغل الييت,قليل من الأعمال المنزليه,كل انواع المساعدة,كل شي,كل شي الطعام دخول الحمام اللباس    أخذ  الرواء ,كل شي حاليا بسبب الحادث,كل شيء,كل شيء المشترك عاجز عن الحركة بشكل كلي تقريبا,كل شيكل شيىء,لا تحتاج مساعدة,لا شي,لا شيء,لا يحتاج,لا يحتاج المساعدة,لا يحتاج للمساعدة,لا يحتاج للمساعدة إلا في حال المرض,لا يحتاج مساعدة,لا يحتاج مساعدة إلا لتحضير طعامه ,مساعده في الأعمال المنزليه  والتسوق,ﻻ شئ,ﻻ يحتاج</t>
-  </si>
-  <si>
-    <t>0,97,accompany,accompany her to the doctor,accompany on the road,accompany to the doctor,accompany/shopping,accompanying her,accompanying him,accounting of his store,agriculture,buy necessary stuff,buy things,buying medication,buying medicine,buying medicine and going to the doctor,buying meds,buying stuff,buying stuff and housekeeping,buying stuff occasionally,buying things,buying things and medicine,cannot walk,driving,escorting,escorting her,everything,going to the doctor or shopping,help her to sit in the car,help him in the shop,help in walking,help me walking,her husband,hold her while walking, hold her stuff,i take her anywhere,no,no need,none,nothing,rarely goes out/sits on a chair waiting the car,she can't walk,shopping,supervision on behaviour,take her a ride in the car to buy stuff,take her to see her children,take her to visit a relative or to the doctor,take him to the doctor,taking care of him,transportations,walking,walks alone but get tired,watching him,while walking,إحضار الأغراض بسبب بعد المنزل عن البقالة,إحضار الادويه التسوق,احيانا يحتاج لمن يساعده في المشي,الاعمال المنزلية وتناول الادوية,التحرك/التسوق,التسوق,التسوق   اغراضها,التسوق احيانا,التسوق شراء الدواء ,التسوق من خارج المنطقه,التسوق وجلب الدواء ,التسوق وشراء اﻻدوية,التنقل,التنقل بالسياره,التنقل و التسوق,الحركة,الذهاب إلى المشفى,السواقه,المساعدة على الحركة/جلب الدواء,المساعدة في التنقل,المساعده  في المشي,المساعده  في المشي ,المساعده الجسديه,المشتريات,المشي,النقل,تصليح الأعطال   وقسم من  التسوق,جلب الاغراض,حاليا كل شئ بسبب الكسر,حمل اﻻغاض,شراء الحاجيات من السوق,شراء الدواء,شراء الدواء والأغراض ,صعوبه في المشي لفتره طويله,كل المساعده,كل انواع المساعدة,كل شي,كل شيء,لا تحتاج إلى مساعده,لا شيء,لا يحتاج,لا يحتاج للمساعدة,لا يحتاج مساعد ,لا يحتاج مساعدة,لا يحتاج مساعدة الا في بعض الوقات حيث يحتاج توصيلة الى مكان بعيد,لا يخرج,لا يوجد,لاشيء,مساعدة في المشي,يحتاج الى المساندة عندما يمشي,ﻻ يحتاج,ﻻ يحتاج الكثير ما المساعدة ,ﻻ يحتاج للمساعدة  ,ﻻيحتاج</t>
-  </si>
-  <si>
-    <t>0,97,I,ahmad and I,all can help when needed,brother,brother-sister in law,children,daughter,daughter and helper,daughter in law,daughters,friend,hanine and her kids,her daughter,her daughter comes if she's sick,her daughter in law,her daughter, her sons,her daughter,my husband and me,her granddaughter, her son,her husband,her niece,her sister,her sister samia takes care of her if she's sick,her son,her son and I,her son and her daughter in law,her son only,him and his family,his children,his daughter in law,his wife,his wife and his daughter,his wife and his son,his wife and me,his wife and the maid,his wife when he is sick,his wife, siblings and me,husband,husband and kids,husband and son,husband-children,husband-son,husband/children when needed,husband/daughter-in-law,if sick, daughter visits her frequently,made,maid,me,me and my brother,me and my children,me,kids,mother,me,my husband and I,my mother,my seblings,my siblings and I,my wife and I,neighbours,nephew,no,no need,no one,nobody,none,nothing,one of my seblings and me,only me,sibling,sister,sometimes her daughter,son,son-daughter,take care of himself,the daughter,the daughter and me,the daughter and the son,the husband,the maid,the maid and I,the son,the wife,we take care of each other,wife,wife and children,wife and other relatives,wife-children,wife-son,younger brother and his wife,أولاده,ااتتنقل,االاخت,االالن,ابنة الاخ,ابنه الابن,الأبناء والاحفار,الابن,الابن و الزوج,الابن و الكنة,الابن و زوجته,الابن والابنة,الابن والكنه,الابن وانا,الابناء,الابناء  واىزوجه,الابنة,الابنتان,الابنه,الابنه والخادمه,الاخ,الاخ و زوجته و اولاده,الاخت,الاولاد,البنات,البنة,البنت,البنت الزوج,الجميع,الحفار والابناء,الخادمه,الزوج,الزوجة,الزوجة فقط,الزوجه,الزوجه   ولابنه,الزوجه وااكنه,العاءله,العاملة المنزلية,الغاملة المنزلية,الكنز ,الكنه,الكنه والابن,المخبر,المواصلات,انا,انا واختي,انا واخواتي,اﻷوﻵد,اﻻبنة,اﻻخت,بنت الأخ ,تقريبا كل افراد العائلة,جميع الابناء,زوجته,لا أحد,لا احد,لا يحتاج مساعة,نحن ابناءها</t>
-  </si>
-  <si>
-    <t>0,97,accompany,accompany her,agriculture and housekeeping,any,anything,anything he needs,anything she asks for,anything that she needs,at home,bath,bathing,buy her meds if sick,buy stuff,buy things,buying medication,buying medicine and things,buying stuff,buying stuff and housekeeping, if needed,buying stuff from the market,buying stuff, especially if no electricity,buying things,buying things, financial,buying things-prepare food,buying things/preparing his stuff,buys her stuff,buys things/give him his medications,check on her,check on them,check on us,cleaning,cleaning the house,clothing and cooking,cooking,cooking and buying things,cooking,clothing,cooking-bathing-dressing-watching,cooking-cleaning-buying things,cooking-house chores,cooking/medications,cooking/visit her,domestic tasks,everything,everything he needs,financial,financial and moral support,financially,financially/buys things,financially/shopping,food,food, meds,food,cleaning the house,get her stuff from supermarket + help her,getting stuff,give her meds, prepare food,give him money, meds, stuff,giving her medication,giving her medicine,giving her medicine and house chores,giving him money,giving medications/preparing food,giving meds,giving money,guest reception,guidance,help her walking,help him in the shop and at home,help him with all tasks,help the maid,helping,helping in housekeeping,house chores,house chores and buying things,house chores and cooking,house chores and preparing food,house cleaning,house duties,house tasks,housekeeping,housekeeping and preparing food,housekeeping and shopping,housekeeping, shopping,if he needs anything,if she needs anything,just sitting with him,little help,medications/buying things/fixing the house,movement from one room to another,no,no help,no need,no one,nobody,none,nothing,organizing his stuff,prepare clothes, food, stuff,prepare food,prepare food and bring her stuff,prepare food and take care of him,prepare food/fix the house,prepare his clothes,prepare the food,prepares his stuff,preparing and buying his stuff,preparing food,preparing food and buying stuff,preparing food and clothing,preparing food and give her medication,preparing food and house chores,preparing food and housecleaning,preparing food and housekeeping,preparing food and shopping,preparing food or juice, and house-keeping,preparing food, giving meds,preparing food-house chores,preparing food/shopping,preparing his stuff,preparing his things,preparing stuff,preparing stuff and food,preparing stuff and take care of him,preparing stuff and take care when he is sick,providing basic needs,routine tasks,shopping,shopping if asked,shopping,cleaning,shopping-preparing food,shopping/cooking,sit with her,sit with her- buy stuff,stay with her,take care of her and the house,take him out,taking care,taking care of her,taking care of her and preparing food,taking care of him,taking care of the house/giving medications,the children,transportation,treatment, financial support,usually serves herself,washing her/preparing food/giving medications,when he is sick,work at home,إحضار أغراض أو صيانة أعطال في المنزل,إعطاء الدوا,ااماديه,احيانا جلب أغراض من الخارج,الأعمال القاسيه جدا,الأعمال المنزليه,الأعمال في اامزل,الاعمال المنزلية,الاعمال المنزلية وتهتم بنظافته ودخوله الحمام,الاهتمام بالمسن,الاهتمام بالمشترك,الاهتمام بصحه المشترك,التسوق,التسوق و ترتيب الننزل,التسوق وشراء الدواء ,الجسديه,الجسديه والماديه,الدعم النفسي,العمل المنزلي بالاضافه إلى جلب الاغراض,العمل المنزلي وتناول الادوية,العمل في المنزل,الماديه,الماديه والجسدية  ,الماديه والجسديه,المساعدة على الحركة,المساعدة في اﻻعمال المنزلية,المساعده الماديه,المساعده الماديه  والجسديه,المساعده في الأعمال المنزليه,المساعده في الأعمال النزليه,المساعده في الاهتمام في المريض من كل النواحي ,المساعره في تحضير الطعام,اﻻعمال المزلية,اﻻعمال المنزلية,اﻻعمال المنزلية  المساعدة في تناول اﻻدوية,تحضير الطعام,تحضير الطعام ,تحضير الطعام ترتيب المنزل,تساعدها في اﻻستحمام وارتداء المﻻبس,تساعدها في عمل المنزل,تصليح الاعطال,تقديم الطعام,تناول الدواء ,تنظيف المنزل,توصيلة او اصلاح معدات في المنزل,ساعدها في الأعمال المنزل ,شراء الأدوية أو أغراض من البقالة,شراء الدواء   التسوف,شراء بعض الاغراض,شغل الييت,في المشي   واللبس,كل الأشياء الضروريه,كل المساعدات المطلوبة,كل المساعدة المطلوبة,كل المساعدع,كل المساعده,كل المساعده تقريبا,كل انواع المساعدة,كل شئ,كل شي,كل شي ,كل شيء,كلما سبق,لا أقدم مساعده  لأني مريضه سرطان ,لا احد,لا اقدم اي مساعدة,لا اقدم مساعدة,لا تحتاج  إلي مساعده,لا حاجة للمساعدة,لا شيء,لا مساعدة,لا ينطبق,لاشيء,لى شيء,ماليه,مساعدة في التسوق,مساعدة في المشي,مساعدة في اﻻعمال المنزلية,مساعدته على الوقوف والمشي,مساعده ماديه,ﻻ مساعدة</t>
-  </si>
-  <si>
-    <t>0,97,a little,cooking and financial aid,daughter,don't need help, but yes,financial support,financially,house chores and food,moral support,no,no need,nobody,none,nothing,sometimes,yes,yes financially,اجل,احيانا,اكي,,اكيد,الاولاد,القليل,عندما يكون بحاجة للمساعدة,قليل,كاا,كلا,كلا ,كلا نعم,كلت,كﻻ,لا,لا احد,نعك,نعم,نعم ,نعم احيانا,نهم</t>
-  </si>
-  <si>
-    <t>0,97,brother,children,daughter,daughter in law,daughters,eldest daughter,her brother,her daughter,her daughter in law,her first son,her granddaughter,her husband,her son,his children,his son,his wife,his wife or one of his siblings,husband,maid,maid/children,mother,my daughter,my mother,my seblings,my seblings and I,my siblings,my siblings and I,my siblings and me,my sister,no,no need,no one,nobody,none,nothing,sister,sometimes,son,the brother,the children,the daughter,the daughter and the son,the maid,wife,yes,yes, my mother (her sister),yes, wife,أحيانا,أخوتي,إلا بنه,االابن التاني,االبنات,ابن الابن,ابنك,ابنه الأخت ,احيانا اخواتي,اختي,الأبناء ,الابن,الابناء,الابناء والبنات,الابنه,الاج,الاخ,الاخت,الاخوات,الاخوه,البنات,الزوجة,العاملة,العاملة المنزلية,الكل يساعد ,الكنه,اولاد الابناء,اﻻبن,كاا,كلا,كلت,كﻵ,كﻻ,لا,لا يوجد,لل,نعم,نعم ,نعم   الابنه,نعم ابي,نعم الاخوه,نعم بنت الاخت,نعم زوجته,ﻻ,ﻻ يوجد</t>
-  </si>
-  <si>
-    <t>0,1,97,buying things,daily visit her,don't existe,friends,he spends time with them everyday,her friend pass every day,her neighbour helps her,neighbor,no,no need,no one,nobody,none,nothing,she has friends but they don't visit oftenly,sometimes,they just visit her,they visit,visit her,visit her constantly,we spend time together everyday,yes,ابدا,احيانا,القليل من المساعه0,في بعض الأحيان,كلا,كلت,كﻵ,كﻻ,لا,نعم,نعم ,نعم يقدمون,ﻻ,ﻻ احد,ﻻ يحتاج مساعدتهم</t>
+    <t>What about friends and neighbours?</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>24, شهر24, 3اشهر, 120, منذ سنة تقريبا, 11, 0, 1, من سنتين, نعم  منذ 12 سنه   تعرض للجلطه, من عشره أعوام ولم أستفيد ابدا, 40, نعم,  منذ سنة تقريبا, 10, 4</t>
+  </si>
+  <si>
+    <t>from work, رسم من المعاينات, taxi driver, مساعده ماديه من الابناء, من الزراعه, shop, employee, مدخول من الدكان, hand crafts, his daughter, عمل من خلال السفر من فتره طويله, work</t>
+  </si>
+  <si>
+    <t>9, 0, ŸäŸÇŸàŸÑ ÿ®ÿ£ŸÜ ÿ£ÿ≠ÿØ ÿßŸÑÿ¨Ÿäÿ±ÿßŸÜ ŸÇÿØ ÿ∂ÿ±ÿ®Ÿá, ŸÑÿß, ŸÉŸÑÿß</t>
+  </si>
+  <si>
+    <t>no one, البنيان   , انا وابنه, انا واختي, son daughter in low daughter, husband daughter, daughter and son, ال ابنه والاحفاد, his wife, wife and brother, ابنتها, wife/son, الاولاد, husband-daughters, ابنته, mother,father, إلا هوه  , ال لن , البنات, husband-maid, sister, الابن و زوجته و أولاده, الزوج والابن, ابنته و زوجته, wife and son, إلا بن  والابنه, my mother and I, الابتاء, الابن و زوجته و اولاده, my husband and my children, الزوج والستين , alone, husband, husband-children, daughter, me, ابنتيها وزوجها, الزوجة و الابناء, زوجته وابناءه, الابنه, wife,son, االابن والخادمه, الزوج, my brother and I, wife-maid, ال ابنه   والابن, the daughter, the children, brother-sister in law-nephew, زوجته وابنه, friend, ال ابنه والابن, انا, wife sister daughter, the son,the wife, بنت الأخ  وزوجه الاخ, the husband and the daughter, my brother, my children and I, her brother, son and his wife and 3 children, my siblings and I, ابنته و حفيده و زوجته, daughter, son-in-law, grandson, الابن  والاحفاد, my sister and I, الزوج و العاملة المنزلية, (me)her daughter, اﻻبن واﻻبنة, his wife, son, grandson, maid, son and maid, her son and her daughter, husband/children, children and wife, his wife and his children, father,brother, the wife and the daughter, الأبناء , الابن والاحفاد, hanine and asaad(son), his wife and his daughter, الزوجة و الابن, nephew, يعيش المسن في منزل ابنته وابنتيها, the daughter and the wife, her son,daughter,grandson and me, wife,kids, nothing, wife-daughter-sister, husband-daughter, إلا بنه00, father, maid, son-daughter in law, maid/daughters, wife and kids, الابن والا بنت , her son and his children, الزوج , me and my son, she, الزوجه , son's family, her husband and children, her son, wife-daughter, her son, her daughter in law, الزوج والاخت والعاملة المنزلية, الزوجه والاولاد, the children and the husband, لااحد, لا احد, my husband, my children and I, الزوجه, her husband,son,grandson and the maid, الاخت, her grandson, wife-sister, wife-children-sister, daughter-grandson, son and daughter, his children and me, me and my brother, my wife and I, the wife and the son, the wife and the maid, اختاها, the children and the wife, wife and children, his wife,the maid and his grandchildren, husband/son, daughter and her husband, daughter and two grandchildren, me and my children, my mother, his wife and children, الابن, wife and daughter, my wife, her sister, son-daughter-maid, the son, the mother, her husband and I, wife-son, her son, her daughter and her granddaughter, my seblings, son-daughter, wife/son/daughter-in-law, ابنتاها, her daughter and her granddaughter, البن و الزوجه والكنه, wife, mother-brother-maid, our son and I(her husband), the husband, her sister and her mother, الابن و الكنة, 0, the wife, wife kids, الابنة, الاولاد  ولالحفاد, ابنتها وابنها, his wife and one of his children, wife-son-daughter in law-grandson, son and his family, her daughter and son, husband son daughter, son-daughter in law-grandson, ال ابنه  الأولى   والثانيه0, االابن, الاخ و زوجته و أولاده, her husband and her daughter, الابن , her husband and her son, her daughter and grandchildren, family, son, brothers and sisters, daughter-daughter in law-children, brother, my husband, children and I, الوالدة, his wife, his son, زوجها و ابنتها و حفيدتها, اﻷوﻻد, المخبر, children, husband-son-daughter in law-grand children, relative, اﻻم وثلاث اخوات, الابن  والابنه, the wife and the children, ابنها و زوجها, wife-children, none, الابنهكلا, me and his children, mother, الزوج  ولابنه, الزوجة و الاولاد, husband and children, الزوجة و العاملة, الخ الزوجه وأبناء الاخ, الزوجه والابنه, البنه, my sister and her daughter, الزوج والابن   وبنت الابن, الزوجه والا بنه, انا واختي وامي, الابناء, son,sibling,grandchildren, husband and kids, husband-grandson, 2, the son and daughter, الزوجة و البناء, الزوج واولاده, الزوج الابنة واخت الزوج, her husband, اﻻزوج, his son,grandson and me, إلا بأنه والابن  وابن الابن, الزوج و الابن, الاخت وزوج الاخت و العاملة المنزلية, her daughter, the husband and the wife only, her son and his family, wife and maid, younger brother, الزوج و الابناء, الزوجه ةالاولاد, زوجته, husband-son, الزوجة وبناته الثلاث, her husband and the maid, the daughter, the children, husband/maid, wife/daughter, الااحد, the daughter and the son, the son and the daughter in law, الخادمه, انا والاولاد, her husband and her children, ابنتان المشترك, the sister, الابن   والبنت , my seblings and I, her kids, الزوجة و الابنة, لا أحد, daughters, the wife and her sister, his children and I, his family, husband sister daughter, daughter/grand-daughter, wife made, اولاد, husband and son, البنات , ال ابنه والزوجه, her son, her daughter in law, her granddaughter, اﻻبنة, daughter-maid, me,kids, الابن الكنه الاحفاد, husband and daughter, nobody, الزوجة, wife and made, زوج والعاملة المنزلية, العاملة المنزلية, wife-daughters, her daughter and her grand daughter, الاخ, her children, daughter and helper, the son and his children, wife/sons, 6, the maid, my husband, الزوج الابنة, الابن وزوجته والاحفاد, الابن و الابنة و الزوج, son and his wife, brother-sister in law-children, الابن الكنة و الاحفاد, wife-son-daughter, الابن الكنة و الاحغاد, the son</t>
+  </si>
+  <si>
+    <t>support him, ﻻ شئ, المساعده عندما يكون مريضا من ناحيه اللبس والأكل , his wife, الأعمال الشاقه, help her if she's sick,  الاستحمام و ارتداء الملابس تحضير الطعام و ترتيب المنزل, house chores, لا يحتاج مساعدة إلا لتحضير طعامه , cooking-cleaning, fixing the house, house chores and preparing food, buying stuff, لا يحتاج مساعدة, preparing stuff, حاليا كل شي, no need, مساعده في الأعمال المنزليه  والتسوق, no, prepare food, bathing-dressing, الأعمال القاسية جدا, preparing food, cleaning the house, شغل الييت, لا تحتاج مساعدة, preparing food, housekeeping, stuff for the house, showering/cooking, تحضير الطعام, fixing the house/preparing her stuff, تناول ادويتها, sit with her, giving meds, الأعمال النزليه, prepare food, escorting, العمل الشاق ا, ﻻ يحتاج, كل انواع المساعدة, cleaning-watching the elderly, كل شيكل شيىء, buy her meds if sick and prepare food, اللباس ومساعدته في الأكل    والمشي   وأعطاه  الدواء, fix the house/cooking, food,laundry, sometimes bath, giving her medication, nothing, housecleaning, we give her the walker to walk, food, housekeeping and preparing food, her husband and children, لا شيء, تحضير الطعام  واعطاء الدواء و اﻻعمال المنزلية, food,buying medicine,cleaning the house, bath, جلب الاغراض, استخدام المرحاض الحمام تحضير الطعام الحركة, his wife prepares food and takes care of him, everything, sometimes, ترتيب المنزل/ التحرك , أغلب الأشياء , cooking/medications, we take care of each other, الاعمال المنزلية والاستحمام, ترتيب البيت, بعض الاعمال المنزلية, المساعدة في اﻻعمال المنزلية, preparing food, أكل شي, cleaning/cooking, المساعده الجسديه, her husband,son and the maid, قليل من الأعمال المنزليه, fix the house/timing of medication lunch dinner, cooking and house chores, الاعمال المنزلية والاهتمام به, كل شيء, the husband, كل شي حاليا بسبب الحادث, تنظيف، تحضير الطعام, 0, buying things, supervision on behaviour, bathing-food, prepare food and help the maid, تحضير الطعام و ترتيب المنزل, ترتيب المنزل, don't need help, cooking and laundry, أعمال البيت جنعيها, لا شي, cook food, cooking, preparing her stuff/help her in standing, تحضير الطعام والتسوق, buying things and medicine, cooking, giving meds, taking care, most of the things, fix the house, الأعمال اامنزليه, none, agriculture, الاعمال المنزلية وتحضير الطعام, كل شي الطعام دخول الحمام اللباس    أخذ  الرواء , لا يحتاج للمساعدة, help in the house, cleaning, كل شي, الاعمال المنزلية والاستخمام, if she's sick we give her meds, preparing food and buying stuff, when he walks he gets tired, تصليح الاعطال, تناول الدواء, كل شيء المشترك عاجز عن الحركة بشكل كلي تقريبا, showering, تحتاج إلى المساعده في الأعمال النزليه, أعمال المنزل   كلها, العمل في المنزل, ا0, preparing his stuff, بعض المساعدة في الاعمال المنزلية, لا يحتاج المساعدة, احمل اﻻشياء الثقيله, الأعمال المنزليه, لا يحتاج للمساعدة إلا في حال المرض, أعمال المنزليه, cleaning the house, القليل من الأعمال المنزليه, االاعمال  المنزليه   بكاملها, cleaning,shopping, الأعمال القاسيه, الأعمال المزليه, تصليح, 97, take care of her if sick, أقسم من العمال المنزليه, الأعمال القاسيه جدا, nobody, التيوق, prepare his stuff, لا يحتاج, housekeeping, escorting, الأعمال المنزليه والاهتمام بالمشترك, تصليح الأعطال , العمال المنزليه, giving her medicine, preparing food and stuff, الاعمال المنزلية, السوق  الأعمال القاسيه في المنزل, if she wants something i help her, الاهتمام به ومساعدته على الاهتمام بنظافته واعطائه اﻻدوية الﻻزمة</t>
+  </si>
+  <si>
+    <t>help me walking, buying stuff occasionally, she can't walk, accompany, accompanying him, الحركة, ﻻ يحتاج للمساعدة  , accompany/shopping, شراء الدواء والأغراض , التحرك/التسوق, buying stuff, حمل اﻻغاض, لا يحتاج مساعدة, help him in the shop, walks alone but get tired, no need, no, walking, المشتريات, التسوق وشراء اﻻدوية, مساعدة في المشي, السواقه, المشي, transportations, accounting of his store, buy necessary stuff, buy things, ﻻ يحتاج, التسوق, كل انواع المساعدة, help her to sit in the car, احيانا يحتاج لمن يساعده في المشي, take him to the doctor, nothing, ﻻ يحتاج الكثير ما المساعدة , accompany on the road, لا يحتاج مساعدة الا في بعض الوقات حيث يحتاج توصيلة الى مكان بعيد, لا شيء, جلب الاغراض, take her to see her children, everything, accompanying her, help in walking, accompany her to the doctor, التنقل و التسوق, التسوق شراء الدواء , cannot walk, المساعده الجسديه, hold her while walking, hold her stuff, التنقل, كل شيء, buying medicine, ﻻيحتاج, 0, driving, buying things, لا تحتاج إلى مساعده, supervision on behaviour, التسوق احيانا, كل المساعده, while walking, taking care of him, المساعدة على الحركة/جلب الدواء, going to the doctor or shopping, التسوق من خارج المنطقه, التسوق   اغراضها, shopping, buying things and medicine, لا يوجد, none, التسوق وجلب الدواء , agriculture, لاشيء, لا يحتاج للمساعدة, لا يخرج, escorting her, كل شي, شراء الحاجيات من السوق, accompany to the doctor, i take her anywhere, her husband, buying meds, الاعمال المنزلية وتناول الادوية, watching him, المساعدة في التنقل, شراء الدواء, المساعده  في المشي, النقل, لا يحتاج مساعد , 97, rarely goes out/sits on a chair waiting the car, take her to visit a relative or to the doctor, buying stuff and housekeeping, لا يحتاج, المساعده  في المشي , يحتاج الى المساندة عندما يمشي, escorting, take her a ride in the car to buy stuff, إحضار الادويه التسوق, buying medication, buying medicine and going to the doctor, التنقل بالسياره, صعوبه في المشي لفتره طويله, حاليا كل شئ بسبب الكسر, الذهاب إلى المشفى, إحضار الأغراض بسبب بعد المنزل عن البقالة, تصليح الأعطال   وقسم من  التسوق</t>
+  </si>
+  <si>
+    <t>no one, نحن ابناءها, ااتتنقل, neighbours, his wife, الاولاد, الاخ و زوجته و اولاده, البنات, sister, االاخت, البنت, her daughter,my husband and me, his wife and me, husband, husband-children, her daughter, her sons, ابنه الابن, daughter, me, الابن وانا, daughter in law, الابنه, الزوجه   ولابنه, الأبناء والاحفار, no need, no, الزوج, الكنه, اﻻخت, husband/daughter-in-law, the daughter, friend, انا, hanine and her kids, his wife and the maid, my siblings and I, her daughter comes if she's sick, الابن و زوجته, االالن, her son and I, his wife and his daughter, nephew, nothing, الكنز , maid, her son, only me, لا احد, اﻷوﻵد, الزوجه, جميع الابناء, the maid and I, الاخت, الابن والكنه, الجميع, the daughter and me, تقريبا كل افراد العائلة, me and my brother, my wife and I, الابنتان, we take care of each other, his daughter in law, take care of himself, wife and children, الابناء  واىزوجه, الزوجه وااكنه, انا واختي, my mother, me and my children, الابن, her sister, الابن و الزوج, wife-son, my seblings, son-daughter, المواصلات, الزوجة فقط, wife, الابنه والخادمه, made, الغاملة المنزلية, the husband, لا يحتاج مساعة, الابن و الكنة, his children, 0, the wife, البنت الزوج, one of my seblings and me, الابنة, brother-sister in law, my husband and I, الكنه والابن, sibling, son, if sick, daughter visits her frequently, brother, his wife when he is sick, her son only, العاءله, المخبر, children, wife and other relatives, wife-children, his wife and his son, none, الابن والابنة, الابناء, بنت الأخ , her granddaughter, her son, husband and kids, her sister samia takes care of her if she's sick, his wife, siblings and me, البنة, her husband, her daughter in law, her daughter, ابنة الاخ, زوجته, husband-son, الخادمه, the daughter and the son, all can help when needed, mother,me, انا واخواتي, لا أحد, her niece, daughters, husband and son, ahmad and I, 97, اﻻبنة, me,kids, younger brother and his wife, nobody, أولاده, الزوجة, husband/children when needed, الحفار والابناء, him and his family, sometimes her daughter, العاملة المنزلية, الاخ, daughter and helper, I, the maid, her son and her daughter in law, the son</t>
+  </si>
+  <si>
+    <t>financially/shopping, no one, كل المساعدع, prepare food and bring her stuff, treatment, financial support, agriculture and housekeeping, stay with her, الماديه, financial, accompany, house tasks, no help, لا اقدم اي مساعدة, house chores, cooking and buying things, food, meds, preparing his things, تناول الدواء , anything that she needs, توصيلة او اصلاح معدات في المنزل, كل المساعدة المطلوبة, house chores and preparing food, if she needs anything, buying stuff, anything, house duties, تحضير الطعام , prepare food and take care of him, الجسديه, helping in housekeeping, preparing stuff, no need, no, prepare food, المساعره في تحضير الطعام, لا أقدم مساعده  لأني مريضه سرطان , مساعدته على الوقوف والمشي, الأعمال في اامزل, the children, العمل المنزلي بالاضافه إلى جلب الاغراض, مساعدة في المشي, financially, preparing stuff and take care of him, movement from one room to another, preparing stuff and food, preparing food and give her medication, شغل الييت, مساعدة في اﻻعمال المنزلية, لى شيء, washing her/preparing food/giving medications, buying stuff, especially if no electricity, تحضير الطعام, prepare his clothes, anything he needs, giving meds, buy things, preparing and buying his stuff, sit with her, التسوق وشراء الدواء , احيانا جلب أغراض من الخارج, preparing food/shopping, مساعدة في التسوق, financial and moral support, التسوق, كل انواع المساعدة, organizing his stuff, في المشي   واللبس, تساعدها في عمل المنزل, transportation, شراء بعض الاغراض, if he needs anything, buy her meds if sick, food,cleaning the house, giving her medication, anything she asks for, check on her, help her walking, food, nothing, التسوق و ترتيب الننزل, housekeeping and preparing food, shopping/cooking, giving money, help him in the shop and at home, لا شيء, prepares his stuff, bath, preparing food and house chores, لا احد, giving her medicine and house chores, preparing stuff and take care when he is sick, house chores and cooking, اﻻعمال المزلية, everything, taking care of her, المساعدة على الحركة, كل الأشياء الضروريه, الاهتمام بالمسن, كل شئ, cooking/medications, preparing food, giving meds, usually serves herself, helping, preparing food or juice, and house-keeping, preparing food and housecleaning, buys her stuff, any, لا مساعدة, take him out, getting stuff, المساعدة في اﻻعمال المنزلية, preparing food, taking care of her and preparing food, المساعده في الأعمال النزليه, guidance, ااماديه, كل شيء, ساعدها في الأعمال المنزل , give her meds, prepare food, 0, routine tasks, buying things, المساعده الماديه, الاهتمام بالمشترك, buy stuff, cooking-cleaning-buying things, شراء الأدوية أو أغراض من البقالة, preparing food-house chores, كل المساعده, housekeeping and shopping, cooking,clothing, check on us, giving medications/preparing food, لا اقدم مساعدة, الماديه والجسدية  , taking care of him, prepare clothes, food, stuff, guest reception, تقديم الطعام, medications/buying things/fixing the house, buying things/preparing his stuff, cooking, shopping, give him money, meds, stuff, ماليه, لا تحتاج  إلي مساعده, everything he needs, none, preparing food and clothing, لاشيء, accompany her, الاعمال المنزلية وتهتم بنظافته ودخوله الحمام, preparing food and shopping, cleaning, العمل المنزلي وتناول الادوية, الاهتمام بصحه المشترك, كل شي, لا حاجة للمساعدة, buying things-prepare food, house cleaning, preparing food and housekeeping, المساعده في الاهتمام في المريض من كل النواحي , كل المساعده تقريبا, at home, buying stuff and housekeeping, if needed, giving him money, الجسديه والماديه, shopping,cleaning, شراء الدواء   التسوف, prepare the food, preparing food and buying stuff, clothing and cooking, تصليح الاعطال, مساعده ماديه, help him with all tasks, لا ينطبق, تنظيف المنزل, كل المساعدات المطلوبة, cooking-house chores, house chores and buying things, shopping if asked, العمل في المنزل, just sitting with him, providing basic needs, الماديه والجسديه, preparing his stuff, اﻻعمال المنزلية, help the maid, إعطاء الدوا, work at home, الأعمال المنزليه, كلما سبق, buying things, financial, cooking/visit her, bathing, cleaning the house, buys things/give him his medications, little help, prepare food/fix the house, taking care of the house/giving medications, when he is sick, الدعم النفسي, تحضير الطعام ترتيب المنزل, shopping-preparing food, كل شي , sit with her- buy stuff, domestic tasks, 97, تساعدها في اﻻستحمام وارتداء المﻻبس, الأعمال القاسيه جدا, cooking-bathing-dressing-watching, nobody, taking care, اﻻعمال المنزلية  المساعدة في تناول اﻻدوية, get her stuff from supermarket + help her, housekeeping, take care of her and the house, المساعده في الأعمال المنزليه, housekeeping, shopping, ﻻ مساعدة, buying medication, buying stuff from the market, giving her medicine, الاعمال المنزلية, buying medicine and things, financially/buys things, إحضار أغراض أو صيانة أعطال في المنزل, المساعده الماديه  والجسديه, check on them</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes financially, cooking and financial aid, القليل, لا, 0, moral support, الاولاد, nothing, financial support, اكيد, yes, house chores and food, قليل, كلا نعم, نعم احيانا, كاا, لا احد, daughter, كﻻ, اكي,, don't need help, but yes, نعم, no need, احيانا, no, 97, sometimes, nobody, none, financially, نعك, كلا , a little, كلا, اجل, كلت, نهم, عندما يكون بحاجة للمساعدة, نعم </t>
+  </si>
+  <si>
+    <t>no one, his wife, العاملة, my siblings, the brother, his son, البنات, sister, husband, الاج, daughter, daughter in law, الابنه, ابنه الأخت , my daughter, no need, no, الكنه, the daughter, the children, her first son, إلا بنه, her brother, his wife or one of his siblings, my siblings and I, كلت, نعم زوجته, نعم , لل, الأبناء , ابن الابن, nothing, اﻻبن, maid, نعم الاخوه, نعم ابي, her son, yes, اختي, الاخت, الاخوات, sometimes, الكل يساعد , ﻻ يوجد, my sister, yes, wife, eldest daughter, احيانا اخواتي, كﻵ, my mother, االابن التاني, الابن, my seblings, wife, أخوتي, his children, 0, son, كاا, brother, نعم, my siblings and me, children, نعم   الابنه, لا يوجد, نعم بنت الاخت, none, mother, her granddaughter, الابناء, كلا, her husband, ابنك, her daughter in law, her daughter, لا, ﻻ, أحيانا, the daughter and the son, maid/children, االبنات, my seblings and I, daughters, كﻻ, الابناء والبنات, 97, الاخوه, nobody, الزوجة, العاملة المنزلية, الاخ, the maid, اولاد الابناء, yes, my mother (her sister)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no one, they visit, don't existe, daily visit her, لا, 0, her friend pass every day, we spend time together everyday, buying things, neighbor, ﻻ, nothing, yes, ﻻ احد, visit her constantly, her neighbour helps her, كﻻ, نعم, no need, احيانا, no, 97, friends, sometimes, في بعض الأحيان, ﻻ يحتاج مساعدتهم, he spends time with them everyday, نعم يقدمون, nobody, none, القليل من المساعه0, كﻵ, she has friends but they don't visit oftenly, visit her, they just visit her, 1, كلا, كلت, ابدا, نعم </t>
   </si>
 </sst>
 </file>
@@ -467,13 +488,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -483,142 +504,231 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>263</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>436</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>437</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>438</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>439</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>440</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>441</v>
+      </c>
+      <c r="B10" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>442</v>
+      </c>
+      <c r="B11" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>443</v>
+      </c>
+      <c r="B12" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="C12" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" t="s">
-        <v>31</v>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
